--- a/Datasets/grades3.xlsx
+++ b/Datasets/grades3.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://snow0-my.sharepoint.com/personal/michael_olson2_snow_edu/Documents/Classes/MATH 3080 - Fundamentals of Data Science/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michael.olson2\Documents\GitHubs\math3080\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{662D223C-C452-45B5-B448-44C252D35E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEF46DB-7C97-47CA-81A6-9FE035E666A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="15943" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grades3" sheetId="1" r:id="rId1"/>
+    <sheet name="last_semester" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>This file contains the grade breakdown for MATH 2085 in the Fall 2012 Semester.</t>
   </si>
@@ -133,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,9 +673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -712,7 +713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -818,7 +819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -960,33 +961,388 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>93</v>
+      </c>
+      <c r="G12">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="F13">
+        <v>97</v>
+      </c>
+      <c r="G13">
+        <v>84</v>
+      </c>
+      <c r="H13">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>83</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15">
+        <v>86</v>
+      </c>
+      <c r="G15">
+        <v>81</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>85</v>
+      </c>
+      <c r="F16">
+        <v>90</v>
+      </c>
+      <c r="G16">
+        <v>87</v>
+      </c>
+      <c r="H16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17">
+        <v>60</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>95</v>
+      </c>
+      <c r="F18">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>100</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>93</v>
+      </c>
+      <c r="H19">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20">
+        <v>100</v>
+      </c>
+      <c r="F20">
+        <v>94</v>
+      </c>
+      <c r="G20">
+        <v>79</v>
+      </c>
+      <c r="H20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>95</v>
+      </c>
+      <c r="F21">
+        <v>99</v>
+      </c>
+      <c r="G21">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBD68D0-7302-4FAE-BFFA-A50DF5B0E661}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1000,37 +1356,37 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1056,7 +1412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1064,7 +1420,7 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1082,7 +1438,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="C13">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1108,7 +1464,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1134,7 +1490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1498,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1160,7 +1516,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1524,7 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1186,7 +1542,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1194,7 +1550,7 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -1212,7 +1568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1238,7 +1594,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1264,7 +1620,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1290,7 +1646,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>35</v>
       </c>
